--- a/docs/Project Gantt Chart.xlsx
+++ b/docs/Project Gantt Chart.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0b74ff9ac3a48cbb/UWE/Year 3/Enterprise Systems Development/Assignment/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Willi\Projects\Enterprise-Systems-Project\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="180" documentId="8_{FFDF537C-00C2-4742-B60C-89BC8BE859CF}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{89549BA0-2EBE-4942-9794-0D5A9537B00F}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16B96E1E-0A0E-4352-B583-AC672672D69C}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165" xr2:uid="{F511A3B4-8B61-4D68-A2C0-45021F7B5F45}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12170" xr2:uid="{F511A3B4-8B61-4D68-A2C0-45021F7B5F45}"/>
   </bookViews>
   <sheets>
     <sheet name="Project Gantt Chart" sheetId="1" r:id="rId1"/>
@@ -138,7 +138,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -173,6 +173,12 @@
       <b/>
       <sz val="22"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -281,73 +287,76 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -666,395 +675,403 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D53BBCF-509D-459A-91AD-8D778710031E}">
   <dimension ref="B1:M20"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="64" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="7" width="30.7109375" customWidth="1"/>
-    <col min="8" max="13" width="10.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.7265625" customWidth="1"/>
+    <col min="3" max="7" width="30.7265625" customWidth="1"/>
+    <col min="8" max="13" width="10.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" s="4" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-    </row>
-    <row r="3" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="5" t="s">
+    <row r="1" spans="2:13" s="3" customFormat="1" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+    </row>
+    <row r="3" spans="2:13" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="6"/>
-    </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B4" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="8" t="s">
+      <c r="F3" s="21"/>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="2">
-        <v>2</v>
-      </c>
-      <c r="E4" s="10" t="s">
+      <c r="D4" s="1">
+        <v>2</v>
+      </c>
+      <c r="E4" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="10"/>
-    </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B5" s="9" t="s">
+      <c r="F4" s="20"/>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B5" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="2">
-        <v>2</v>
-      </c>
-      <c r="E5" s="10" t="s">
+      <c r="D5" s="1">
+        <v>2</v>
+      </c>
+      <c r="E5" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="10"/>
-    </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B6" s="9" t="s">
+      <c r="F5" s="20"/>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B6" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="2">
-        <v>2</v>
-      </c>
-      <c r="E6" s="10" t="s">
+      <c r="D6" s="1">
+        <v>2</v>
+      </c>
+      <c r="E6" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="10"/>
-    </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B7" s="9" t="s">
+      <c r="F6" s="20"/>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B7" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="2">
-        <v>2</v>
-      </c>
-      <c r="E7" s="10" t="s">
+      <c r="D7" s="1">
+        <v>2</v>
+      </c>
+      <c r="E7" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="10"/>
-      <c r="H7" s="3" t="s">
+      <c r="F7" s="20"/>
+      <c r="H7" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="I7" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B8" s="9" t="s">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B8" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="2">
-        <v>2</v>
-      </c>
-      <c r="E8" s="10" t="s">
+      <c r="D8" s="1">
+        <v>2</v>
+      </c>
+      <c r="E8" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="F8" s="10"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="2" t="s">
+      <c r="F8" s="20"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B9" s="9" t="s">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B9" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="2">
-        <v>2</v>
-      </c>
-      <c r="E9" s="10" t="s">
+      <c r="D9" s="1">
+        <v>2</v>
+      </c>
+      <c r="E9" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="F9" s="10"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="2" t="s">
+      <c r="F9" s="20"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B10" s="9" t="s">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B10" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="2">
-        <v>2</v>
-      </c>
-      <c r="E10" s="10" t="s">
+      <c r="D10" s="1">
+        <v>2</v>
+      </c>
+      <c r="E10" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="F10" s="10"/>
-    </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B11" s="15"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-    </row>
-    <row r="12" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H12" s="6" t="s">
+      <c r="F10" s="20"/>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B11" s="12"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+    </row>
+    <row r="12" spans="2:13" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H12" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
-    </row>
-    <row r="13" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="5" t="s">
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="21"/>
+      <c r="M12" s="21"/>
+    </row>
+    <row r="13" spans="2:13" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="F13" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="G13" s="5" t="s">
+      <c r="G13" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H13" s="5">
-        <v>1</v>
-      </c>
-      <c r="I13" s="5">
-        <v>2</v>
-      </c>
-      <c r="J13" s="5">
+      <c r="H13" s="4">
+        <v>1</v>
+      </c>
+      <c r="I13" s="4">
+        <v>2</v>
+      </c>
+      <c r="J13" s="4">
         <v>3</v>
       </c>
-      <c r="K13" s="5">
+      <c r="K13" s="4">
         <v>4</v>
       </c>
-      <c r="L13" s="5">
+      <c r="L13" s="4">
         <v>5</v>
       </c>
-      <c r="M13" s="5">
+      <c r="M13" s="4">
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B14" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C14" s="12">
-        <v>1</v>
-      </c>
-      <c r="D14" s="12">
-        <v>2</v>
-      </c>
-      <c r="E14" s="12">
-        <v>1</v>
-      </c>
-      <c r="F14" s="12">
-        <v>1</v>
-      </c>
-      <c r="G14" s="11">
-        <v>1</v>
-      </c>
-      <c r="H14" s="20"/>
-      <c r="I14" s="21"/>
-      <c r="J14" s="14"/>
-      <c r="K14" s="14"/>
-      <c r="L14" s="14"/>
-      <c r="M14" s="23"/>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B15" s="9" t="s">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B14" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="9">
+        <v>1</v>
+      </c>
+      <c r="D14" s="9">
+        <v>2</v>
+      </c>
+      <c r="E14" s="9">
+        <v>1</v>
+      </c>
+      <c r="F14" s="9">
+        <v>1</v>
+      </c>
+      <c r="G14" s="8">
+        <v>1</v>
+      </c>
+      <c r="H14" s="17"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="19"/>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B15" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C15" s="13">
-        <v>1</v>
-      </c>
-      <c r="D15" s="13">
-        <v>2</v>
-      </c>
-      <c r="E15" s="13">
-        <v>1</v>
-      </c>
-      <c r="F15" s="13">
-        <v>1</v>
-      </c>
-      <c r="G15" s="11">
-        <v>1</v>
-      </c>
-      <c r="H15" s="20"/>
-      <c r="I15" s="21"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="14"/>
-      <c r="L15" s="14"/>
-      <c r="M15" s="23"/>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B16" s="9" t="s">
+      <c r="C15" s="10">
+        <v>1</v>
+      </c>
+      <c r="D15" s="10">
+        <v>2</v>
+      </c>
+      <c r="E15" s="10">
+        <v>1</v>
+      </c>
+      <c r="F15" s="10">
+        <v>1</v>
+      </c>
+      <c r="G15" s="8">
+        <v>1</v>
+      </c>
+      <c r="H15" s="17"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="19"/>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B16" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C16" s="13">
-        <v>1</v>
-      </c>
-      <c r="D16" s="13">
-        <v>2</v>
-      </c>
-      <c r="E16" s="13">
-        <v>1</v>
-      </c>
-      <c r="F16" s="13">
-        <v>1</v>
-      </c>
-      <c r="G16" s="11">
-        <v>1</v>
-      </c>
-      <c r="H16" s="20"/>
-      <c r="I16" s="21"/>
-      <c r="J16" s="14"/>
-      <c r="K16" s="14"/>
-      <c r="L16" s="14"/>
-      <c r="M16" s="23"/>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B17" s="9" t="s">
+      <c r="C16" s="10">
+        <v>1</v>
+      </c>
+      <c r="D16" s="10">
+        <v>2</v>
+      </c>
+      <c r="E16" s="10">
+        <v>1</v>
+      </c>
+      <c r="F16" s="10">
+        <v>1</v>
+      </c>
+      <c r="G16" s="8">
+        <v>1</v>
+      </c>
+      <c r="H16" s="17"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="19"/>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B17" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="13">
-        <v>1</v>
-      </c>
-      <c r="D17" s="13">
-        <v>2</v>
-      </c>
-      <c r="E17" s="13">
-        <v>1</v>
-      </c>
-      <c r="F17" s="13"/>
-      <c r="G17" s="11">
-        <v>0</v>
-      </c>
-      <c r="H17" s="22"/>
-      <c r="I17" s="21"/>
-      <c r="J17" s="14"/>
-      <c r="K17" s="14"/>
-      <c r="L17" s="14"/>
-      <c r="M17" s="23"/>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B18" s="9" t="s">
+      <c r="C17" s="10">
+        <v>1</v>
+      </c>
+      <c r="D17" s="10">
+        <v>2</v>
+      </c>
+      <c r="E17" s="10">
+        <v>1</v>
+      </c>
+      <c r="F17" s="10">
+        <v>2</v>
+      </c>
+      <c r="G17" s="8">
+        <v>1</v>
+      </c>
+      <c r="H17" s="23"/>
+      <c r="I17" s="24"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="19"/>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B18" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="13">
-        <v>1</v>
-      </c>
-      <c r="D18" s="13">
-        <v>2</v>
-      </c>
-      <c r="E18" s="13">
-        <v>1</v>
-      </c>
-      <c r="F18" s="13"/>
-      <c r="G18" s="11">
-        <v>0</v>
-      </c>
-      <c r="H18" s="22"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="14"/>
-      <c r="K18" s="14"/>
-      <c r="L18" s="14"/>
-      <c r="M18" s="23"/>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B19" s="9" t="s">
+      <c r="C18" s="10">
+        <v>1</v>
+      </c>
+      <c r="D18" s="10">
+        <v>2</v>
+      </c>
+      <c r="E18" s="10">
+        <v>1</v>
+      </c>
+      <c r="F18" s="10">
+        <v>2</v>
+      </c>
+      <c r="G18" s="8">
+        <v>1</v>
+      </c>
+      <c r="H18" s="23"/>
+      <c r="I18" s="24"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="19"/>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B19" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="13">
-        <v>1</v>
-      </c>
-      <c r="D19" s="13">
-        <v>2</v>
-      </c>
-      <c r="E19" s="13">
-        <v>1</v>
-      </c>
-      <c r="F19" s="13"/>
-      <c r="G19" s="11">
-        <v>0</v>
-      </c>
-      <c r="H19" s="22"/>
-      <c r="I19" s="21"/>
-      <c r="J19" s="14"/>
-      <c r="K19" s="14"/>
-      <c r="L19" s="14"/>
-      <c r="M19" s="23"/>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B20" s="9" t="s">
+      <c r="C19" s="10">
+        <v>1</v>
+      </c>
+      <c r="D19" s="10">
+        <v>2</v>
+      </c>
+      <c r="E19" s="10">
+        <v>1</v>
+      </c>
+      <c r="F19" s="10">
+        <v>2</v>
+      </c>
+      <c r="G19" s="8">
+        <v>1</v>
+      </c>
+      <c r="H19" s="23"/>
+      <c r="I19" s="24"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="11"/>
+      <c r="M19" s="19"/>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B20" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="13">
-        <v>1</v>
-      </c>
-      <c r="D20" s="13">
-        <v>2</v>
-      </c>
-      <c r="E20" s="13">
-        <v>1</v>
-      </c>
-      <c r="F20" s="13"/>
-      <c r="G20" s="11">
-        <v>0</v>
-      </c>
-      <c r="H20" s="22"/>
-      <c r="I20" s="21"/>
-      <c r="J20" s="14"/>
-      <c r="K20" s="14"/>
-      <c r="L20" s="14"/>
-      <c r="M20" s="23"/>
+      <c r="C20" s="10">
+        <v>1</v>
+      </c>
+      <c r="D20" s="10">
+        <v>2</v>
+      </c>
+      <c r="E20" s="10">
+        <v>1</v>
+      </c>
+      <c r="F20" s="10">
+        <v>2</v>
+      </c>
+      <c r="G20" s="8">
+        <v>1</v>
+      </c>
+      <c r="H20" s="23"/>
+      <c r="I20" s="24"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="11"/>
+      <c r="M20" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="10">

--- a/docs/Project Gantt Chart.xlsx
+++ b/docs/Project Gantt Chart.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Willi\Projects\Enterprise-Systems-Project\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Enterprise-Systems-Project\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16B96E1E-0A0E-4352-B583-AC672672D69C}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12170" xr2:uid="{F511A3B4-8B61-4D68-A2C0-45021F7B5F45}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165"/>
   </bookViews>
   <sheets>
     <sheet name="Project Gantt Chart" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,14 +30,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="36">
   <si>
     <t>Task Name</t>
   </si>
   <si>
-    <t>Project Gantt Chart</t>
-  </si>
-  <si>
     <t>T1</t>
   </si>
   <si>
@@ -110,18 +107,6 @@
     <t>Tom Vanlaer-McCanna</t>
   </si>
   <si>
-    <t>Periods (Weeks)</t>
-  </si>
-  <si>
-    <t>Planned Start (Period)</t>
-  </si>
-  <si>
-    <t>Actual Start (Period)</t>
-  </si>
-  <si>
-    <t>Actual Duration (Periods)</t>
-  </si>
-  <si>
     <t>Planned</t>
   </si>
   <si>
@@ -132,12 +117,33 @@
   </si>
   <si>
     <t>Type</t>
+  </si>
+  <si>
+    <t>T8</t>
+  </si>
+  <si>
+    <t>Produce sprint presentation</t>
+  </si>
+  <si>
+    <t>Project gantt chart</t>
+  </si>
+  <si>
+    <t>Planned Duration (days)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Actual Start </t>
+  </si>
+  <si>
+    <t>Actual Duration (days)</t>
+  </si>
+  <si>
+    <t>Planned Start</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -184,7 +190,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -199,18 +205,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
+        <fgColor theme="1" tint="4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -283,11 +301,33 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -295,7 +335,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -308,18 +347,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -329,34 +362,79 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -672,421 +750,1666 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D53BBCF-509D-459A-91AD-8D778710031E}">
-  <dimension ref="B1:M20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AW41"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="64" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15.7265625" customWidth="1"/>
-    <col min="3" max="7" width="30.7265625" customWidth="1"/>
-    <col min="8" max="13" width="10.7265625" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="2" max="4" width="30.7109375" customWidth="1"/>
+    <col min="5" max="5" width="32" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.7109375" customWidth="1"/>
+    <col min="7" max="8" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" customWidth="1"/>
+    <col min="11" max="11" width="14.140625" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" customWidth="1"/>
+    <col min="13" max="13" width="12.42578125" customWidth="1"/>
+    <col min="14" max="18" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.140625" customWidth="1"/>
+    <col min="21" max="28" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="31" max="40" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="41" max="48" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="13.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" s="3" customFormat="1" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="22" t="s">
+    <row r="1" spans="1:6" s="22" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+    </row>
+    <row r="3" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
-    </row>
-    <row r="3" spans="2:13" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="4" t="s">
+      <c r="B4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="1">
+        <v>14</v>
+      </c>
+      <c r="D4" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="4" t="s">
+      <c r="B5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="1">
+        <v>14</v>
+      </c>
+      <c r="D5" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="21" t="s">
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="1">
+        <v>14</v>
+      </c>
+      <c r="D6" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="1">
+        <v>14</v>
+      </c>
+      <c r="D7" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="1">
+        <v>14</v>
+      </c>
+      <c r="D8" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="21"/>
-    </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B4" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="1">
-        <v>2</v>
-      </c>
-      <c r="E4" s="20" t="s">
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="1">
+        <v>14</v>
+      </c>
+      <c r="D9" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="1">
+        <v>14</v>
+      </c>
+      <c r="D10" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="20"/>
-    </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B5" s="7" t="s">
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="1">
+        <v>7</v>
+      </c>
+      <c r="D11" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="6"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="6"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="6"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="6"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="6"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+    </row>
+    <row r="17" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A17" s="6"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="26"/>
+    </row>
+    <row r="18" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A18" s="6"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
+    </row>
+    <row r="19" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A19" s="6"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="26"/>
+    </row>
+    <row r="20" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A20" s="6"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="26"/>
+    </row>
+    <row r="21" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A21" s="6"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="29"/>
+    </row>
+    <row r="22" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A22" s="6"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="26"/>
+    </row>
+    <row r="23" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A23" s="9"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+    </row>
+    <row r="24" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A24" s="9"/>
+      <c r="B24" s="10"/>
+    </row>
+    <row r="25" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A26" s="19"/>
+      <c r="B26" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="1:49" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="21"/>
+      <c r="B27" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G27" s="30"/>
+      <c r="H27" s="30"/>
+      <c r="I27" s="30"/>
+      <c r="J27" s="30"/>
+      <c r="K27" s="30"/>
+      <c r="L27" s="30"/>
+    </row>
+    <row r="28" spans="1:49" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G28" s="36">
+        <v>43402</v>
+      </c>
+      <c r="H28" s="36">
+        <v>43403</v>
+      </c>
+      <c r="I28" s="36">
+        <v>43404</v>
+      </c>
+      <c r="J28" s="36">
+        <v>43405</v>
+      </c>
+      <c r="K28" s="36">
+        <v>43406</v>
+      </c>
+      <c r="L28" s="36">
+        <v>43407</v>
+      </c>
+      <c r="M28" s="36">
+        <v>43408</v>
+      </c>
+      <c r="N28" s="36">
+        <v>43409</v>
+      </c>
+      <c r="O28" s="36">
+        <v>43410</v>
+      </c>
+      <c r="P28" s="36">
+        <v>43411</v>
+      </c>
+      <c r="Q28" s="36">
+        <v>43412</v>
+      </c>
+      <c r="R28" s="36">
+        <v>43413</v>
+      </c>
+      <c r="S28" s="36">
+        <v>43414</v>
+      </c>
+      <c r="T28" s="36">
+        <v>43415</v>
+      </c>
+      <c r="U28" s="16">
+        <v>43416</v>
+      </c>
+      <c r="V28" s="16">
+        <v>43417</v>
+      </c>
+      <c r="W28" s="16">
+        <v>43418</v>
+      </c>
+      <c r="X28" s="16">
+        <v>43419</v>
+      </c>
+      <c r="Y28" s="16">
+        <v>43420</v>
+      </c>
+      <c r="Z28" s="16">
+        <v>43421</v>
+      </c>
+      <c r="AA28" s="16">
+        <v>43422</v>
+      </c>
+      <c r="AB28" s="16">
+        <v>43423</v>
+      </c>
+      <c r="AC28" s="16">
+        <v>43424</v>
+      </c>
+      <c r="AD28" s="16">
+        <v>43425</v>
+      </c>
+      <c r="AE28" s="16">
+        <v>43426</v>
+      </c>
+      <c r="AF28" s="16">
+        <v>43427</v>
+      </c>
+      <c r="AG28" s="16">
+        <v>43428</v>
+      </c>
+      <c r="AH28" s="16">
+        <v>43429</v>
+      </c>
+      <c r="AI28" s="16">
+        <v>43430</v>
+      </c>
+      <c r="AJ28" s="16">
+        <v>43431</v>
+      </c>
+      <c r="AK28" s="16">
+        <v>43432</v>
+      </c>
+      <c r="AL28" s="16">
+        <v>43433</v>
+      </c>
+      <c r="AM28" s="16">
+        <v>43434</v>
+      </c>
+      <c r="AN28" s="16">
+        <v>43435</v>
+      </c>
+      <c r="AO28" s="16">
+        <v>43436</v>
+      </c>
+      <c r="AP28" s="16">
+        <v>43437</v>
+      </c>
+      <c r="AQ28" s="16">
+        <v>43438</v>
+      </c>
+      <c r="AR28" s="16">
+        <v>43439</v>
+      </c>
+      <c r="AS28" s="16">
+        <v>43440</v>
+      </c>
+      <c r="AT28" s="16">
+        <v>43441</v>
+      </c>
+      <c r="AU28" s="16">
+        <v>43442</v>
+      </c>
+      <c r="AV28" s="16">
+        <v>43443</v>
+      </c>
+      <c r="AW28" s="16">
+        <v>43444</v>
+      </c>
+    </row>
+    <row r="29" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A29" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B29" s="31">
+        <v>43402</v>
+      </c>
+      <c r="C29" s="1">
+        <v>14</v>
+      </c>
+      <c r="D29" s="7">
+        <v>1</v>
+      </c>
+      <c r="E29" s="7">
+        <v>1</v>
+      </c>
+      <c r="F29" s="33">
+        <v>1</v>
+      </c>
+      <c r="G29" s="19"/>
+      <c r="H29" s="17"/>
+      <c r="I29" s="17"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+      <c r="P29" s="1"/>
+      <c r="Q29" s="1"/>
+      <c r="R29" s="1"/>
+      <c r="S29" s="1"/>
+      <c r="T29" s="1"/>
+      <c r="U29" s="12"/>
+      <c r="V29" s="1"/>
+      <c r="W29" s="1"/>
+      <c r="X29" s="1"/>
+      <c r="Y29" s="1"/>
+      <c r="Z29" s="1"/>
+      <c r="AA29" s="1"/>
+      <c r="AB29" s="1"/>
+      <c r="AC29" s="1"/>
+      <c r="AD29" s="1"/>
+      <c r="AE29" s="1"/>
+      <c r="AF29" s="1"/>
+      <c r="AG29" s="1"/>
+      <c r="AH29" s="1"/>
+      <c r="AI29" s="1"/>
+      <c r="AJ29" s="1"/>
+      <c r="AK29" s="1"/>
+      <c r="AL29" s="1"/>
+      <c r="AM29" s="1"/>
+      <c r="AN29" s="1"/>
+      <c r="AO29" s="1"/>
+      <c r="AP29" s="1"/>
+      <c r="AQ29" s="1"/>
+      <c r="AR29" s="1"/>
+      <c r="AS29" s="1"/>
+      <c r="AT29" s="1"/>
+      <c r="AU29" s="1"/>
+      <c r="AV29" s="1"/>
+      <c r="AW29" s="1"/>
+    </row>
+    <row r="30" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A30" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B30" s="31">
+        <v>43402</v>
+      </c>
+      <c r="C30" s="1">
+        <v>14</v>
+      </c>
+      <c r="D30" s="8">
+        <v>1</v>
+      </c>
+      <c r="E30" s="8">
+        <v>1</v>
+      </c>
+      <c r="F30" s="33">
+        <v>1</v>
+      </c>
+      <c r="G30" s="19"/>
+      <c r="H30" s="17"/>
+      <c r="I30" s="17"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
+      <c r="Q30" s="1"/>
+      <c r="R30" s="1"/>
+      <c r="S30" s="1"/>
+      <c r="T30" s="1"/>
+      <c r="U30" s="12"/>
+      <c r="V30" s="1"/>
+      <c r="W30" s="1"/>
+      <c r="X30" s="1"/>
+      <c r="Y30" s="1"/>
+      <c r="Z30" s="1"/>
+      <c r="AA30" s="1"/>
+      <c r="AB30" s="1"/>
+      <c r="AC30" s="1"/>
+      <c r="AD30" s="1"/>
+      <c r="AE30" s="1"/>
+      <c r="AF30" s="1"/>
+      <c r="AG30" s="1"/>
+      <c r="AH30" s="1"/>
+      <c r="AI30" s="1"/>
+      <c r="AJ30" s="1"/>
+      <c r="AK30" s="1"/>
+      <c r="AL30" s="1"/>
+      <c r="AM30" s="1"/>
+      <c r="AN30" s="1"/>
+      <c r="AO30" s="1"/>
+      <c r="AP30" s="1"/>
+      <c r="AQ30" s="1"/>
+      <c r="AR30" s="1"/>
+      <c r="AS30" s="1"/>
+      <c r="AT30" s="1"/>
+      <c r="AU30" s="1"/>
+      <c r="AV30" s="1"/>
+      <c r="AW30" s="1"/>
+    </row>
+    <row r="31" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A31" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="1">
-        <v>2</v>
-      </c>
-      <c r="E5" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="20"/>
-    </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B6" s="7" t="s">
+      <c r="B31" s="31">
+        <v>43402</v>
+      </c>
+      <c r="C31" s="1">
+        <v>14</v>
+      </c>
+      <c r="D31" s="8">
+        <v>1</v>
+      </c>
+      <c r="E31" s="8">
+        <v>1</v>
+      </c>
+      <c r="F31" s="33">
+        <v>1</v>
+      </c>
+      <c r="G31" s="19"/>
+      <c r="H31" s="17"/>
+      <c r="I31" s="17"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
+      <c r="Q31" s="1"/>
+      <c r="R31" s="1"/>
+      <c r="S31" s="1"/>
+      <c r="T31" s="1"/>
+      <c r="U31" s="12"/>
+      <c r="V31" s="1"/>
+      <c r="W31" s="1"/>
+      <c r="X31" s="1"/>
+      <c r="Y31" s="1"/>
+      <c r="Z31" s="1"/>
+      <c r="AA31" s="1"/>
+      <c r="AB31" s="1"/>
+      <c r="AC31" s="1"/>
+      <c r="AD31" s="1"/>
+      <c r="AE31" s="1"/>
+      <c r="AF31" s="1"/>
+      <c r="AG31" s="1"/>
+      <c r="AH31" s="1"/>
+      <c r="AI31" s="1"/>
+      <c r="AJ31" s="1"/>
+      <c r="AK31" s="1"/>
+      <c r="AL31" s="1"/>
+      <c r="AM31" s="1"/>
+      <c r="AN31" s="1"/>
+      <c r="AO31" s="1"/>
+      <c r="AP31" s="1"/>
+      <c r="AQ31" s="1"/>
+      <c r="AR31" s="1"/>
+      <c r="AS31" s="1"/>
+      <c r="AT31" s="1"/>
+      <c r="AU31" s="1"/>
+      <c r="AV31" s="1"/>
+      <c r="AW31" s="1"/>
+    </row>
+    <row r="32" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A32" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="B32" s="31">
+        <v>43402</v>
+      </c>
+      <c r="C32" s="1">
+        <v>14</v>
+      </c>
+      <c r="D32" s="8">
+        <v>2</v>
+      </c>
+      <c r="E32" s="8">
+        <v>7</v>
+      </c>
+      <c r="F32" s="33">
+        <v>1</v>
+      </c>
+      <c r="G32" s="20"/>
+      <c r="H32" s="21"/>
+      <c r="I32" s="21"/>
+      <c r="J32" s="21"/>
+      <c r="K32" s="21"/>
+      <c r="L32" s="21"/>
+      <c r="M32" s="19"/>
+      <c r="N32" s="21"/>
+      <c r="O32" s="21"/>
+      <c r="P32" s="21"/>
+      <c r="Q32" s="21"/>
+      <c r="R32" s="21"/>
+      <c r="S32" s="21"/>
+      <c r="T32" s="21"/>
+      <c r="U32" s="12"/>
+      <c r="V32" s="1"/>
+      <c r="W32" s="1"/>
+      <c r="X32" s="1"/>
+      <c r="Y32" s="1"/>
+      <c r="Z32" s="1"/>
+      <c r="AA32" s="1"/>
+      <c r="AB32" s="1"/>
+      <c r="AC32" s="1"/>
+      <c r="AD32" s="1"/>
+      <c r="AE32" s="1"/>
+      <c r="AF32" s="1"/>
+      <c r="AG32" s="1"/>
+      <c r="AH32" s="1"/>
+      <c r="AI32" s="1"/>
+      <c r="AJ32" s="1"/>
+      <c r="AK32" s="1"/>
+      <c r="AL32" s="1"/>
+      <c r="AM32" s="1"/>
+      <c r="AN32" s="1"/>
+      <c r="AO32" s="1"/>
+      <c r="AP32" s="1"/>
+      <c r="AQ32" s="1"/>
+      <c r="AR32" s="1"/>
+      <c r="AS32" s="1"/>
+      <c r="AT32" s="1"/>
+      <c r="AU32" s="1"/>
+      <c r="AV32" s="1"/>
+      <c r="AW32" s="1"/>
+    </row>
+    <row r="33" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A33" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B33" s="31">
+        <v>43402</v>
+      </c>
+      <c r="C33" s="1">
+        <v>14</v>
+      </c>
+      <c r="D33" s="8">
+        <v>2</v>
+      </c>
+      <c r="E33" s="8">
         <v>11</v>
       </c>
-      <c r="D6" s="1">
-        <v>2</v>
-      </c>
-      <c r="E6" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" s="20"/>
-    </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B7" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="1">
-        <v>2</v>
-      </c>
-      <c r="E7" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" s="20"/>
-      <c r="H7" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B8" s="7" t="s">
+      <c r="F33" s="33">
+        <v>1</v>
+      </c>
+      <c r="G33" s="20"/>
+      <c r="H33" s="21"/>
+      <c r="I33" s="19"/>
+      <c r="J33" s="19"/>
+      <c r="K33" s="19"/>
+      <c r="L33" s="19"/>
+      <c r="M33" s="19"/>
+      <c r="N33" s="19"/>
+      <c r="O33" s="19"/>
+      <c r="P33" s="19"/>
+      <c r="Q33" s="19"/>
+      <c r="R33" s="21"/>
+      <c r="S33" s="21"/>
+      <c r="T33" s="21"/>
+      <c r="U33" s="12"/>
+      <c r="V33" s="1"/>
+      <c r="W33" s="1"/>
+      <c r="X33" s="1"/>
+      <c r="Y33" s="1"/>
+      <c r="Z33" s="1"/>
+      <c r="AA33" s="1"/>
+      <c r="AB33" s="1"/>
+      <c r="AC33" s="1"/>
+      <c r="AD33" s="1"/>
+      <c r="AE33" s="1"/>
+      <c r="AF33" s="1"/>
+      <c r="AG33" s="1"/>
+      <c r="AH33" s="1"/>
+      <c r="AI33" s="1"/>
+      <c r="AJ33" s="1"/>
+      <c r="AK33" s="1"/>
+      <c r="AL33" s="1"/>
+      <c r="AM33" s="1"/>
+      <c r="AN33" s="1"/>
+      <c r="AO33" s="1"/>
+      <c r="AP33" s="1"/>
+      <c r="AQ33" s="1"/>
+      <c r="AR33" s="1"/>
+      <c r="AS33" s="1"/>
+      <c r="AT33" s="1"/>
+      <c r="AU33" s="1"/>
+      <c r="AV33" s="1"/>
+      <c r="AW33" s="1"/>
+    </row>
+    <row r="34" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A34" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="1">
-        <v>2</v>
-      </c>
-      <c r="E8" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="F8" s="20"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B9" s="7" t="s">
+      <c r="B34" s="31">
+        <v>43402</v>
+      </c>
+      <c r="C34" s="1">
         <v>14</v>
       </c>
-      <c r="C9" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="1">
-        <v>2</v>
-      </c>
-      <c r="E9" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="F9" s="20"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B10" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" s="1">
-        <v>2</v>
-      </c>
-      <c r="E10" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="F10" s="20"/>
-    </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B11" s="12"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-    </row>
-    <row r="12" spans="2:13" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="H12" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="I12" s="21"/>
-      <c r="J12" s="21"/>
-      <c r="K12" s="21"/>
-      <c r="L12" s="21"/>
-      <c r="M12" s="21"/>
-    </row>
-    <row r="13" spans="2:13" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="4" t="s">
+      <c r="D34" s="8">
+        <v>2</v>
+      </c>
+      <c r="E34" s="8">
+        <v>13</v>
+      </c>
+      <c r="F34" s="33">
+        <v>1</v>
+      </c>
+      <c r="G34" s="20"/>
+      <c r="H34" s="21"/>
+      <c r="I34" s="21"/>
+      <c r="J34" s="21"/>
+      <c r="K34" s="21"/>
+      <c r="L34" s="21"/>
+      <c r="M34" s="21"/>
+      <c r="N34" s="21"/>
+      <c r="O34" s="21"/>
+      <c r="P34" s="21"/>
+      <c r="Q34" s="21"/>
+      <c r="R34" s="19"/>
+      <c r="S34" s="19"/>
+      <c r="T34" s="21"/>
+      <c r="U34" s="12"/>
+      <c r="V34" s="1"/>
+      <c r="W34" s="1"/>
+      <c r="X34" s="1"/>
+      <c r="Y34" s="1"/>
+      <c r="Z34" s="1"/>
+      <c r="AA34" s="1"/>
+      <c r="AB34" s="1"/>
+      <c r="AC34" s="1"/>
+      <c r="AD34" s="1"/>
+      <c r="AE34" s="1"/>
+      <c r="AF34" s="1"/>
+      <c r="AG34" s="1"/>
+      <c r="AH34" s="1"/>
+      <c r="AI34" s="1"/>
+      <c r="AJ34" s="1"/>
+      <c r="AK34" s="1"/>
+      <c r="AL34" s="1"/>
+      <c r="AM34" s="1"/>
+      <c r="AN34" s="1"/>
+      <c r="AO34" s="1"/>
+      <c r="AP34" s="1"/>
+      <c r="AQ34" s="1"/>
+      <c r="AR34" s="1"/>
+      <c r="AS34" s="1"/>
+      <c r="AT34" s="1"/>
+      <c r="AU34" s="1"/>
+      <c r="AV34" s="1"/>
+      <c r="AW34" s="1"/>
+    </row>
+    <row r="35" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A35" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B35" s="32">
+        <v>43408</v>
+      </c>
+      <c r="C35" s="1">
         <v>7</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F13" s="4" t="s">
+      <c r="D35" s="8">
+        <v>2</v>
+      </c>
+      <c r="E35" s="8">
+        <v>1</v>
+      </c>
+      <c r="F35" s="33">
+        <v>1</v>
+      </c>
+      <c r="G35" s="18"/>
+      <c r="H35" s="17"/>
+      <c r="I35" s="17"/>
+      <c r="J35" s="17"/>
+      <c r="K35" s="17"/>
+      <c r="L35" s="17"/>
+      <c r="M35" s="19"/>
+      <c r="N35" s="17"/>
+      <c r="O35" s="17"/>
+      <c r="P35" s="17"/>
+      <c r="Q35" s="17"/>
+      <c r="R35" s="17"/>
+      <c r="S35" s="17"/>
+      <c r="T35" s="17"/>
+      <c r="U35" s="35"/>
+      <c r="V35" s="1"/>
+      <c r="W35" s="1"/>
+      <c r="X35" s="1"/>
+      <c r="Y35" s="1"/>
+      <c r="Z35" s="1"/>
+      <c r="AA35" s="1"/>
+      <c r="AB35" s="1"/>
+      <c r="AC35" s="1"/>
+      <c r="AD35" s="1"/>
+      <c r="AE35" s="1"/>
+      <c r="AF35" s="1"/>
+      <c r="AG35" s="1"/>
+      <c r="AH35" s="1"/>
+      <c r="AI35" s="1"/>
+      <c r="AJ35" s="1"/>
+      <c r="AK35" s="1"/>
+      <c r="AL35" s="1"/>
+      <c r="AM35" s="1"/>
+      <c r="AN35" s="1"/>
+      <c r="AO35" s="1"/>
+      <c r="AP35" s="1"/>
+      <c r="AQ35" s="1"/>
+      <c r="AR35" s="1"/>
+      <c r="AS35" s="1"/>
+      <c r="AT35" s="1"/>
+      <c r="AU35" s="1"/>
+      <c r="AV35" s="1"/>
+      <c r="AW35" s="1"/>
+    </row>
+    <row r="36" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A36" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="G13" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H13" s="4">
+      <c r="B36" s="32">
+        <v>43408</v>
+      </c>
+      <c r="C36" s="1">
+        <v>7</v>
+      </c>
+      <c r="D36" s="1">
+        <v>2</v>
+      </c>
+      <c r="E36" s="1">
+        <v>7</v>
+      </c>
+      <c r="F36" s="33">
         <v>1</v>
       </c>
-      <c r="I13" s="4">
-        <v>2</v>
-      </c>
-      <c r="J13" s="4">
-        <v>3</v>
-      </c>
-      <c r="K13" s="4">
-        <v>4</v>
-      </c>
-      <c r="L13" s="4">
-        <v>5</v>
-      </c>
-      <c r="M13" s="4">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B14" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C14" s="9">
-        <v>1</v>
-      </c>
-      <c r="D14" s="9">
-        <v>2</v>
-      </c>
-      <c r="E14" s="9">
-        <v>1</v>
-      </c>
-      <c r="F14" s="9">
-        <v>1</v>
-      </c>
-      <c r="G14" s="8">
-        <v>1</v>
-      </c>
-      <c r="H14" s="17"/>
-      <c r="I14" s="18"/>
-      <c r="J14" s="11"/>
-      <c r="K14" s="11"/>
-      <c r="L14" s="11"/>
-      <c r="M14" s="19"/>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B15" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C15" s="10">
-        <v>1</v>
-      </c>
-      <c r="D15" s="10">
-        <v>2</v>
-      </c>
-      <c r="E15" s="10">
-        <v>1</v>
-      </c>
-      <c r="F15" s="10">
-        <v>1</v>
-      </c>
-      <c r="G15" s="8">
-        <v>1</v>
-      </c>
-      <c r="H15" s="17"/>
-      <c r="I15" s="18"/>
-      <c r="J15" s="11"/>
-      <c r="K15" s="11"/>
-      <c r="L15" s="11"/>
-      <c r="M15" s="19"/>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B16" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" s="10">
-        <v>1</v>
-      </c>
-      <c r="D16" s="10">
-        <v>2</v>
-      </c>
-      <c r="E16" s="10">
-        <v>1</v>
-      </c>
-      <c r="F16" s="10">
-        <v>1</v>
-      </c>
-      <c r="G16" s="8">
-        <v>1</v>
-      </c>
-      <c r="H16" s="17"/>
-      <c r="I16" s="18"/>
-      <c r="J16" s="11"/>
-      <c r="K16" s="11"/>
-      <c r="L16" s="11"/>
-      <c r="M16" s="19"/>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B17" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17" s="10">
-        <v>1</v>
-      </c>
-      <c r="D17" s="10">
-        <v>2</v>
-      </c>
-      <c r="E17" s="10">
-        <v>1</v>
-      </c>
-      <c r="F17" s="10">
-        <v>2</v>
-      </c>
-      <c r="G17" s="8">
-        <v>1</v>
-      </c>
-      <c r="H17" s="23"/>
-      <c r="I17" s="24"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="11"/>
-      <c r="L17" s="11"/>
-      <c r="M17" s="19"/>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C18" s="10">
-        <v>1</v>
-      </c>
-      <c r="D18" s="10">
-        <v>2</v>
-      </c>
-      <c r="E18" s="10">
-        <v>1</v>
-      </c>
-      <c r="F18" s="10">
-        <v>2</v>
-      </c>
-      <c r="G18" s="8">
-        <v>1</v>
-      </c>
-      <c r="H18" s="23"/>
-      <c r="I18" s="24"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="11"/>
-      <c r="L18" s="11"/>
-      <c r="M18" s="19"/>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B19" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C19" s="10">
-        <v>1</v>
-      </c>
-      <c r="D19" s="10">
-        <v>2</v>
-      </c>
-      <c r="E19" s="10">
-        <v>1</v>
-      </c>
-      <c r="F19" s="10">
-        <v>2</v>
-      </c>
-      <c r="G19" s="8">
-        <v>1</v>
-      </c>
-      <c r="H19" s="23"/>
-      <c r="I19" s="24"/>
-      <c r="J19" s="11"/>
-      <c r="K19" s="11"/>
-      <c r="L19" s="11"/>
-      <c r="M19" s="19"/>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B20" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C20" s="10">
-        <v>1</v>
-      </c>
-      <c r="D20" s="10">
-        <v>2</v>
-      </c>
-      <c r="E20" s="10">
-        <v>1</v>
-      </c>
-      <c r="F20" s="10">
-        <v>2</v>
-      </c>
-      <c r="G20" s="8">
-        <v>1</v>
-      </c>
-      <c r="H20" s="23"/>
-      <c r="I20" s="24"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="11"/>
-      <c r="L20" s="11"/>
-      <c r="M20" s="19"/>
+      <c r="G36" s="17"/>
+      <c r="H36" s="17"/>
+      <c r="I36" s="17"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="21"/>
+      <c r="N36" s="21"/>
+      <c r="O36" s="21"/>
+      <c r="P36" s="21"/>
+      <c r="Q36" s="21"/>
+      <c r="R36" s="19"/>
+      <c r="S36" s="19"/>
+      <c r="T36" s="19"/>
+      <c r="U36" s="35"/>
+      <c r="V36" s="1"/>
+      <c r="W36" s="1"/>
+      <c r="X36" s="1"/>
+      <c r="Y36" s="1"/>
+      <c r="Z36" s="1"/>
+      <c r="AA36" s="1"/>
+      <c r="AB36" s="1"/>
+      <c r="AC36" s="1"/>
+      <c r="AD36" s="1"/>
+      <c r="AE36" s="1"/>
+      <c r="AF36" s="1"/>
+      <c r="AG36" s="1"/>
+      <c r="AH36" s="1"/>
+      <c r="AI36" s="1"/>
+      <c r="AJ36" s="1"/>
+      <c r="AK36" s="1"/>
+      <c r="AL36" s="1"/>
+      <c r="AM36" s="1"/>
+      <c r="AN36" s="1"/>
+      <c r="AO36" s="1"/>
+      <c r="AP36" s="1"/>
+      <c r="AQ36" s="1"/>
+      <c r="AR36" s="1"/>
+      <c r="AS36" s="1"/>
+      <c r="AT36" s="1"/>
+      <c r="AU36" s="1"/>
+      <c r="AV36" s="1"/>
+      <c r="AW36" s="1"/>
+    </row>
+    <row r="37" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A37" s="6"/>
+      <c r="B37" s="32"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="34"/>
+      <c r="G37" s="17"/>
+      <c r="H37" s="17"/>
+      <c r="I37" s="17"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1"/>
+      <c r="P37" s="1"/>
+      <c r="Q37" s="1"/>
+      <c r="R37" s="1"/>
+      <c r="S37" s="1"/>
+      <c r="T37" s="1"/>
+      <c r="U37" s="12"/>
+      <c r="V37" s="1"/>
+      <c r="W37" s="1"/>
+      <c r="X37" s="1"/>
+      <c r="Y37" s="1"/>
+      <c r="Z37" s="1"/>
+      <c r="AA37" s="1"/>
+      <c r="AB37" s="1"/>
+      <c r="AC37" s="1"/>
+      <c r="AD37" s="1"/>
+      <c r="AE37" s="1"/>
+      <c r="AF37" s="1"/>
+      <c r="AG37" s="1"/>
+      <c r="AH37" s="1"/>
+      <c r="AI37" s="1"/>
+      <c r="AJ37" s="1"/>
+      <c r="AK37" s="1"/>
+      <c r="AL37" s="1"/>
+      <c r="AM37" s="1"/>
+      <c r="AN37" s="1"/>
+      <c r="AO37" s="1"/>
+      <c r="AP37" s="1"/>
+      <c r="AQ37" s="1"/>
+      <c r="AR37" s="1"/>
+      <c r="AS37" s="1"/>
+      <c r="AT37" s="1"/>
+      <c r="AU37" s="1"/>
+      <c r="AV37" s="1"/>
+      <c r="AW37" s="1"/>
+    </row>
+    <row r="38" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A38" s="6"/>
+      <c r="B38" s="32"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="34"/>
+      <c r="G38" s="17"/>
+      <c r="H38" s="17"/>
+      <c r="I38" s="17"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+      <c r="N38" s="1"/>
+      <c r="O38" s="1"/>
+      <c r="P38" s="1"/>
+      <c r="Q38" s="1"/>
+      <c r="R38" s="1"/>
+      <c r="S38" s="1"/>
+      <c r="T38" s="1"/>
+      <c r="U38" s="12"/>
+      <c r="V38" s="1"/>
+      <c r="W38" s="1"/>
+      <c r="X38" s="1"/>
+      <c r="Y38" s="1"/>
+      <c r="Z38" s="1"/>
+      <c r="AA38" s="1"/>
+      <c r="AB38" s="1"/>
+      <c r="AC38" s="1"/>
+      <c r="AD38" s="1"/>
+      <c r="AE38" s="1"/>
+      <c r="AF38" s="1"/>
+      <c r="AG38" s="1"/>
+      <c r="AH38" s="1"/>
+      <c r="AI38" s="1"/>
+      <c r="AJ38" s="1"/>
+      <c r="AK38" s="1"/>
+      <c r="AL38" s="1"/>
+      <c r="AM38" s="1"/>
+      <c r="AN38" s="1"/>
+      <c r="AO38" s="1"/>
+      <c r="AP38" s="1"/>
+      <c r="AQ38" s="1"/>
+      <c r="AR38" s="1"/>
+      <c r="AS38" s="1"/>
+      <c r="AT38" s="1"/>
+      <c r="AU38" s="1"/>
+      <c r="AV38" s="1"/>
+      <c r="AW38" s="1"/>
+    </row>
+    <row r="39" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A39" s="6"/>
+      <c r="B39" s="32"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="34"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
+      <c r="O39" s="1"/>
+      <c r="P39" s="1"/>
+      <c r="Q39" s="1"/>
+      <c r="R39" s="1"/>
+      <c r="S39" s="1"/>
+      <c r="T39" s="1"/>
+      <c r="U39" s="12"/>
+      <c r="V39" s="1"/>
+      <c r="W39" s="1"/>
+      <c r="X39" s="1"/>
+      <c r="Y39" s="1"/>
+      <c r="Z39" s="1"/>
+      <c r="AA39" s="1"/>
+      <c r="AB39" s="1"/>
+      <c r="AC39" s="1"/>
+      <c r="AD39" s="1"/>
+      <c r="AE39" s="1"/>
+      <c r="AF39" s="1"/>
+      <c r="AG39" s="1"/>
+      <c r="AH39" s="1"/>
+      <c r="AI39" s="1"/>
+      <c r="AJ39" s="1"/>
+      <c r="AK39" s="1"/>
+      <c r="AL39" s="1"/>
+      <c r="AM39" s="1"/>
+      <c r="AN39" s="1"/>
+      <c r="AO39" s="1"/>
+      <c r="AP39" s="1"/>
+      <c r="AQ39" s="1"/>
+      <c r="AR39" s="1"/>
+      <c r="AS39" s="1"/>
+      <c r="AT39" s="1"/>
+      <c r="AU39" s="1"/>
+      <c r="AV39" s="1"/>
+      <c r="AW39" s="1"/>
+    </row>
+    <row r="40" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A40" s="6"/>
+      <c r="B40" s="32"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="34"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
+      <c r="N40" s="1"/>
+      <c r="O40" s="1"/>
+      <c r="P40" s="1"/>
+      <c r="Q40" s="1"/>
+      <c r="R40" s="1"/>
+      <c r="S40" s="1"/>
+      <c r="T40" s="1"/>
+      <c r="U40" s="12"/>
+      <c r="V40" s="1"/>
+      <c r="W40" s="1"/>
+      <c r="X40" s="1"/>
+      <c r="Y40" s="1"/>
+      <c r="Z40" s="1"/>
+      <c r="AA40" s="1"/>
+      <c r="AB40" s="1"/>
+      <c r="AC40" s="1"/>
+      <c r="AD40" s="1"/>
+      <c r="AE40" s="1"/>
+      <c r="AF40" s="1"/>
+      <c r="AG40" s="1"/>
+      <c r="AH40" s="1"/>
+      <c r="AI40" s="1"/>
+      <c r="AJ40" s="1"/>
+      <c r="AK40" s="1"/>
+      <c r="AL40" s="1"/>
+      <c r="AM40" s="1"/>
+      <c r="AN40" s="1"/>
+      <c r="AO40" s="1"/>
+      <c r="AP40" s="1"/>
+      <c r="AQ40" s="1"/>
+      <c r="AR40" s="1"/>
+      <c r="AS40" s="1"/>
+      <c r="AT40" s="1"/>
+      <c r="AU40" s="1"/>
+      <c r="AV40" s="1"/>
+      <c r="AW40" s="1"/>
+    </row>
+    <row r="41" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A41" s="6"/>
+      <c r="B41" s="32"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="34"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
+      <c r="N41" s="1"/>
+      <c r="O41" s="1"/>
+      <c r="P41" s="1"/>
+      <c r="Q41" s="1"/>
+      <c r="R41" s="1"/>
+      <c r="S41" s="1"/>
+      <c r="T41" s="1"/>
+      <c r="U41" s="12"/>
+      <c r="V41" s="1"/>
+      <c r="W41" s="1"/>
+      <c r="X41" s="1"/>
+      <c r="Y41" s="1"/>
+      <c r="Z41" s="1"/>
+      <c r="AA41" s="1"/>
+      <c r="AB41" s="1"/>
+      <c r="AC41" s="1"/>
+      <c r="AD41" s="1"/>
+      <c r="AE41" s="1"/>
+      <c r="AF41" s="1"/>
+      <c r="AG41" s="1"/>
+      <c r="AH41" s="1"/>
+      <c r="AI41" s="1"/>
+      <c r="AJ41" s="1"/>
+      <c r="AK41" s="1"/>
+      <c r="AL41" s="1"/>
+      <c r="AM41" s="1"/>
+      <c r="AN41" s="1"/>
+      <c r="AO41" s="1"/>
+      <c r="AP41" s="1"/>
+      <c r="AQ41" s="1"/>
+      <c r="AR41" s="1"/>
+      <c r="AS41" s="1"/>
+      <c r="AT41" s="1"/>
+      <c r="AU41" s="1"/>
+      <c r="AV41" s="1"/>
+      <c r="AW41" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="H12:M12"/>
-    <mergeCell ref="B1:M1"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
+  <mergeCells count="21">
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="D21:F21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="43.28515625" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" customWidth="1"/>
+    <col min="7" max="7" width="31.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="15"/>
+      <c r="F1" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1" s="15"/>
+      <c r="K1" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="L1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="M1" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N1" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="O1" s="15"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="1">
+        <v>2</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="14"/>
+      <c r="F2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="1">
+        <v>2</v>
+      </c>
+      <c r="I2" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" s="14"/>
+      <c r="K2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="M2" s="1">
+        <v>2</v>
+      </c>
+      <c r="N2" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="O2" s="14"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="1">
+        <v>2</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="14"/>
+      <c r="F3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="1">
+        <v>2</v>
+      </c>
+      <c r="I3" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="14"/>
+      <c r="K3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="M3" s="1">
+        <v>2</v>
+      </c>
+      <c r="N3" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="O3" s="14"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="1">
+        <v>2</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="14"/>
+      <c r="F4" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="1">
+        <v>2</v>
+      </c>
+      <c r="I4" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" s="14"/>
+      <c r="K4" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="M4" s="1">
+        <v>2</v>
+      </c>
+      <c r="N4" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="O4" s="14"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="1">
+        <v>2</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="14"/>
+      <c r="F5" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="1">
+        <v>2</v>
+      </c>
+      <c r="I5" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="J5" s="14"/>
+      <c r="K5" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="M5" s="1">
+        <v>2</v>
+      </c>
+      <c r="N5" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="O5" s="14"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="1">
+        <v>2</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="14"/>
+      <c r="F6" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="1">
+        <v>2</v>
+      </c>
+      <c r="I6" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="J6" s="14"/>
+      <c r="K6" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="M6" s="1">
+        <v>2</v>
+      </c>
+      <c r="N6" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="O6" s="14"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="1">
+        <v>2</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="14"/>
+      <c r="F7" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="1">
+        <v>2</v>
+      </c>
+      <c r="I7" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="J7" s="14"/>
+      <c r="K7" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="M7" s="1">
+        <v>2</v>
+      </c>
+      <c r="N7" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="O7" s="14"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="1">
+        <v>2</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="14"/>
+      <c r="F8" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" s="1">
+        <v>2</v>
+      </c>
+      <c r="I8" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="J8" s="14"/>
+      <c r="K8" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="M8" s="1">
+        <v>2</v>
+      </c>
+      <c r="N8" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="O8" s="14"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="14"/>
+      <c r="F9" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="1">
+        <v>1</v>
+      </c>
+      <c r="I9" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="J9" s="14"/>
+      <c r="K9" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M9" s="1">
+        <v>1</v>
+      </c>
+      <c r="N9" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="O9" s="14"/>
+    </row>
+  </sheetData>
+  <mergeCells count="27">
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D6:E6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>